--- a/biology/Médecine/Fascia_endothoracique/Fascia_endothoracique.xlsx
+++ b/biology/Médecine/Fascia_endothoracique/Fascia_endothoracique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia endothoracique (ou aponévrose endothoracique ou fascia sous-pleural ou lame sous-pleurale ou tissu sous-pleural) est la couche de tissu conjonctif qui recouvre la face périphérique de la plèvre la séparant des espaces intercostaux et des côtes.
 C'est la membrane la plus externe de la cavité thoracique.
